--- a/reverseprimer-v3_18.xlsx
+++ b/reverseprimer-v3_18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_18" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1633-AGTAGAACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGAACGTGTCTCGTGGGCTCGG</t>
+    <t>R1633-ACTTCGTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCGTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1634-TAGTGCTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGCTACGGTCTCGTGGGCTCGG</t>
+    <t>R1634-AGTGACTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGACTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1635-TACCTCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTCTCAAGTCTCGTGGGCTCGG</t>
+    <t>R1635-GCTTGGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGGACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1636-ACTTGACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTGACGATGTCTCGTGGGCTCGG</t>
+    <t>R1636-TACTCCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCCTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1637-CCAAGCTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCAAGCTTGTGTCTCGTGGGCTCGG</t>
+    <t>R1637-GGAACTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1638-GTGAACATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAACATGTGTCTCGTGGGCTCGG</t>
+    <t>R1638-ATCCTTCGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTTCGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1639-TGTCCATGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCATGATGTCTCGTGGGCTCGG</t>
+    <t>R1639-CAAGACGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGACGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1640-CGTGCTACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGCTACTTGTCTCGTGGGCTCGG</t>
+    <t>R1640-ATGTAGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTAGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1641-CTTCCTTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCCTTCTAGTCTCGTGGGCTCGG</t>
+    <t>R1641-AGTCAACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1642-CATGGAAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGAAGATGTCTCGTGGGCTCGG</t>
+    <t>R1642-GGTCAACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTCAACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1643-CAAGGAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGGAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1643-CTGAACTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAACTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1644-TGGTGTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R1644-ACTGCTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1645-TCTTCTAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTCTAGACGTCTCGTGGGCTCGG</t>
+    <t>R1645-AGTGTCTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTCTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1646-AACGATGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGATGCTCGTCTCGTGGGCTCGG</t>
+    <t>R1646-GTTCTGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTGGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1647-GTACTCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTCACAGGTCTCGTGGGCTCGG</t>
+    <t>R1647-ATCACACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1648-TCCTCATCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTCATCACGTCTCGTGGGCTCGG</t>
+    <t>R1648-GCAAGAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1649-AAGACAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGACAGATGGTCTCGTGGGCTCGG</t>
+    <t>R1649-TGAACATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACATGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1650-AGCTCACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCACATGGTCTCGTGGGCTCGG</t>
+    <t>R1650-CCTGAGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGAGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1651-AGCTTCAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTTCAGGTGTCTCGTGGGCTCGG</t>
+    <t>R1651-TACACACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1652-GACTGTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGTAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1652-AACAAGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAAGTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1653-TGGATGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATGTAGCGTCTCGTGGGCTCGG</t>
+    <t>R1653-CAGGATGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGATGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R1654-AAGTTGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1654-TAGTAGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTAGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R1655-GTGCTCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCTCATCAGTCTCGTGGGCTCGG</t>
+    <t>R1655-GATCAACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCAACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R1656-ACATCTGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCTGGACGTCTCGTGGGCTCGG</t>
+    <t>R1656-TTGTGACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTGACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R1657-CTGCACTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCACTTCAGTCTCGTGGGCTCGG</t>
+    <t>R1657-CCATCGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R1658-TTCAAGCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAAGCAGGGTCTCGTGGGCTCGG</t>
+    <t>R1658-AACTACCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTACCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R1659-TTGCTCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCTCTGGTCTCGTGGGCTCGG</t>
+    <t>R1659-AAGACTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R1660-GTGTGAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGAGGATGTCTCGTGGGCTCGG</t>
+    <t>R1660-ACTCTAGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R1661-AACCAAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1661-GGATGTGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGTGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R1662-GTTCTCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCATGCGTCTCGTGGGCTCGG</t>
+    <t>R1662-TGGTGACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R1663-GTAGTCTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTCGAGTCTCGTGGGCTCGG</t>
+    <t>R1663-CCACATCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACATCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R1664-ACTCGACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCGACTCAGTCTCGTGGGCTCGG</t>
+    <t>R1664-GTCTCAAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTCAAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R1665-CAAGCACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGCACAACGTCTCGTGGGCTCGG</t>
+    <t>R1665-CAGTCTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTCTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R1666-CTGAAGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGTCTGGTCTCGTGGGCTCGG</t>
+    <t>R1666-GAACTCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R1667-AGACTAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R1667-TGTTGCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTGCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R1668-GCTACTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R1668-ACTTCGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R1669-CATCTGTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTGTTCAGTCTCGTGGGCTCGG</t>
+    <t>R1669-TGGTGCATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGCATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R1670-AGTACAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACAAGTCGTCTCGTGGGCTCGG</t>
+    <t>R1670-TTCGTCGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGTCGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R1671-ACACTGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R1671-ATCCAGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCAGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R1672-TGAACTCCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACTCCAGGTCTCGTGGGCTCGG</t>
+    <t>R1672-TGCAACTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAACTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R1673-TGTGAACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAACCTGGTCTCGTGGGCTCGG</t>
+    <t>R1673-ATGTGAGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGAGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R1674-GTTCCAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCAAGGAGTCTCGTGGGCTCGG</t>
+    <t>R1674-AGTAGGAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R1675-GACCTCTTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTCTTCAGTCTCGTGGGCTCGG</t>
+    <t>R1675-CTACCATGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCATGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R1676-CGATCATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCATCATGTCTCGTGGGCTCGG</t>
+    <t>R1676-TACATGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATGGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R1677-AACCAACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAACCTGGTCTCGTGGGCTCGG</t>
+    <t>R1677-AGAGGTTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R1678-TAGACGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACGTCACGTCTCGTGGGCTCGG</t>
+    <t>R1678-CGTTGAGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGAGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1679-GTCATCAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATCAGGTGTCTCGTGGGCTCGG</t>
+    <t>R1679-CTACACAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACACAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R1680-TACCATGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCATGAACGTCTCGTGGGCTCGG</t>
+    <t>R1680-AACCAAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R1681-GTAGGTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1681-GAGTTCGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R1682-TCACCTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCTCATCGTCTCGTGGGCTCGG</t>
+    <t>R1682-ACGACTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGACTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R1683-AGTACTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACTCCTAGTCTCGTGGGCTCGG</t>
+    <t>R1683-AACTCCATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCCATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R1684-ATGAGACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAGACAACGTCTCGTGGGCTCGG</t>
+    <t>R1684-TCTTGCTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R1685-TAGATCCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATCCTGTGTCTCGTGGGCTCGG</t>
+    <t>R1685-GAGGTTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGTTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R1686-GTTCAGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCAGTCTCGTCTCGTGGGCTCGG</t>
+    <t>R1686-CCTTCGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R1687-AGACGAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGAGATGGTCTCGTGGGCTCGG</t>
+    <t>R1687-ACTAGGTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R1688-GTACAGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAGGATGGTCTCGTGGGCTCGG</t>
+    <t>R1688-AGGTTGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R1689-ACATGTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R1689-AACATGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R1690-TGGAGTACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAGTACGAGTCTCGTGGGCTCGG</t>
+    <t>R1690-AACAGACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGACTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R1691-GTTCCTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R1691-TGAAGAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAAGAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R1692-TACTGCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGCTCTAGTCTCGTGGGCTCGG</t>
+    <t>R1692-GGAACCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAACCAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R1693-CTGAAGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAAGTGAAGTCTCGTGGGCTCGG</t>
+    <t>R1693-CTGAGATGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGATGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R1694-GTGTCTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTCAGTGTCTCGTGGGCTCGG</t>
+    <t>R1694-GGTAGCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGCATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R1695-TAGACCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACCAACCGTCTCGTGGGCTCGG</t>
+    <t>R1695-CACTGTCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGTCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R1696-TCACTCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R1696-AGTGTGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R1697-CAACCTGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCTGCTTGTCTCGTGGGCTCGG</t>
+    <t>R1697-ATGGTGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R1698-TTGTCAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTCAGCATGTCTCGTGGGCTCGG</t>
+    <t>R1698-AACTGCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGCTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R1699-GAAGTACCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTACCTGGTCTCGTGGGCTCGG</t>
+    <t>R1699-AAGAGAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R1700-GACTGTCCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGTCCAAGTCTCGTGGGCTCGG</t>
+    <t>R1700-AACATGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACATGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R1701-AACCTTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTTCCTAGTCTCGTGGGCTCGG</t>
+    <t>R1701-CACACTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACACTTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R1702-ATGGTGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R1702-AACTACGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTACGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R1703-ACACAAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACAAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R1703-TCGTACTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R1704-TGCTGAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTGAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1704-TTCACTAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACTAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R1705-GCTGTAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGTAGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1705-GTCTTGAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R1706-TGATGAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATGAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R1706-ATCCTCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R1707-GTAGAGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1707-AGACAGACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACAGACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R1708-CGTCCAAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCCAAGAAGTCTCGTGGGCTCGG</t>
+    <t>R1708-TGTGTCCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTCCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R1709-GGATGTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGTACGTGTCTCGTGGGCTCGG</t>
+    <t>R1709-TCGATCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R1710-CTTGAGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGCTTCGTCTCGTGGGCTCGG</t>
+    <t>R1710-CTCCTACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCTACTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R1711-GCTACTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTACTAGTGGTCTCGTGGGCTCGG</t>
+    <t>R1711-GTGTGACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R1712-TCTGTCGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCGAACGTCTCGTGGGCTCGG</t>
+    <t>R1712-TCAGATCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGATCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R1713-ACATGGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R1713-CATGTCTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R1714-TTCTCCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R1714-ATGAGCTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGCTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R1715-ACACGTAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGTAGCTGTCTCGTGGGCTCGG</t>
+    <t>R1715-ACAGCATCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCATCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R1716-ACATGACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATGACCAAGTCTCGTGGGCTCGG</t>
+    <t>R1716-TCAGACCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGACCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1717-CATGGAGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGGAGACTGTCTCGTGGGCTCGG</t>
+    <t>R1717-CCTGAGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGAGTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1718-ACAGTAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTAGCAAGTCTCGTGGGCTCGG</t>
+    <t>R1718-CTGGTGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGGTGTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1719-GTACAGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACAGTGCTGTCTCGTGGGCTCGG</t>
+    <t>R1719-ATGGTTGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTTGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1720-TTCCTCTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCTACTGTCTCGTGGGCTCGG</t>
+    <t>R1720-TCTTCCTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCCTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1721-AACATGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACATGATCCGTCTCGTGGGCTCGG</t>
+    <t>R1721-CTTCTCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCTCTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1722-TGATCAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R1722-CTGCTTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1723-AGAGCTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGCTGAACGTCTCGTGGGCTCGG</t>
+    <t>R1723-TCTACTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACTACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1724-GAAGATCGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGATCGTCGTCTCGTGGGCTCGG</t>
+    <t>R1724-CACACGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACACGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1725-ACCACAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCACAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R1725-GAAGAGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1726-TGGACTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1726-TCTTGCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1727-ACGTGACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTGACGTAGTCTCGTGGGCTCGG</t>
+    <t>R1727-GGACTGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGACTGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1728-AGAACACGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACACGAGGTCTCGTGGGCTCGG</t>
+    <t>R1728-GACTTCGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTCGTTGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
